--- a/실무엑셀/Chapter2/2-1-1.xlsx
+++ b/실무엑셀/Chapter2/2-1-1.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25003"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\9. 내 드롭박스\@. #오빠두\# 홈페이지 공유파일\1. 엑셀 - 무료강의\진짜쓰는 실무엑셀\Chapter02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kissd\TIL\실무엑셀\Chapter2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C429788F-6FCE-412F-80FF-8390FACA0C72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F95504-AD53-4C11-9AFB-0F5F791E7F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{73BC3659-AE6A-4878-A23B-8BC35504EB10}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{73BC3659-AE6A-4878-A23B-8BC35504EB10}"/>
   </bookViews>
   <sheets>
     <sheet name="오팡물류센터" sheetId="1" r:id="rId1"/>
     <sheet name="구분추가" sheetId="4" r:id="rId2"/>
     <sheet name="헬로상가" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">오팡물류센터!$J$4:$L$19</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -331,7 +334,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -359,9 +362,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -395,10 +395,10 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -407,19 +407,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -740,7 +740,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -750,41 +750,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0526ED97-AC70-496A-9EF3-3C90622450DD}">
   <dimension ref="B1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="3.5" customWidth="1"/>
     <col min="6" max="8" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="9" max="9" width="6.5" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.625" customWidth="1"/>
+    <col min="10" max="10" width="11.59765625" customWidth="1"/>
     <col min="11" max="11" width="10.5" style="6" customWidth="1"/>
-    <col min="12" max="12" width="10.25" customWidth="1"/>
-    <col min="14" max="14" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="5.375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.19921875" customWidth="1"/>
+    <col min="14" max="14" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="5.3984375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:12" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="24" t="s">
+    <row r="1" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:12" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="J2" s="24" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="J2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-    </row>
-    <row r="3" spans="2:12" ht="11.45" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+    </row>
+    <row r="3" spans="2:12" ht="11.4" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
@@ -816,7 +818,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
@@ -848,7 +850,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
@@ -873,14 +875,14 @@
       <c r="J6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K6" s="8" t="s">
         <v>7</v>
       </c>
       <c r="L6" s="5">
         <v>1904</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
@@ -905,14 +907,14 @@
       <c r="J7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="8" t="s">
         <v>8</v>
       </c>
       <c r="L7" s="5">
         <v>1029</v>
       </c>
     </row>
-    <row r="8" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
@@ -925,9 +927,9 @@
       <c r="E8" s="5">
         <v>1029</v>
       </c>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
       <c r="J8" s="2" t="s">
         <v>5</v>
       </c>
@@ -938,7 +940,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
@@ -963,25 +965,25 @@
       <c r="J9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="K9" s="8" t="s">
         <v>7</v>
       </c>
       <c r="L9" s="5">
         <v>1215</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="J10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K10" s="9" t="s">
+      <c r="K10" s="8" t="s">
         <v>8</v>
       </c>
       <c r="L10" s="5">
         <v>1596</v>
       </c>
     </row>
-    <row r="11" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="J11" s="2" t="s">
         <v>3</v>
       </c>
@@ -992,29 +994,29 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="12" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="J12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="9" t="s">
+      <c r="K12" s="8" t="s">
         <v>7</v>
       </c>
       <c r="L12" s="5">
         <v>1721</v>
       </c>
     </row>
-    <row r="13" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="J13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K13" s="9" t="s">
+      <c r="K13" s="8" t="s">
         <v>8</v>
       </c>
       <c r="L13" s="5">
         <v>1634</v>
       </c>
     </row>
-    <row r="14" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="J14" s="2" t="s">
         <v>2</v>
       </c>
@@ -1025,29 +1027,29 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="15" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="J15" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K15" s="9" t="s">
+      <c r="K15" s="8" t="s">
         <v>7</v>
       </c>
       <c r="L15" s="5">
         <v>1304</v>
       </c>
     </row>
-    <row r="16" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="J16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K16" s="9" t="s">
+      <c r="K16" s="8" t="s">
         <v>8</v>
       </c>
       <c r="L16" s="5">
         <v>1880</v>
       </c>
     </row>
-    <row r="17" spans="10:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="10:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="J17" s="2" t="s">
         <v>1</v>
       </c>
@@ -1058,22 +1060,22 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="18" spans="10:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="10:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="J18" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="K18" s="9" t="s">
+      <c r="K18" s="8" t="s">
         <v>7</v>
       </c>
       <c r="L18" s="5">
         <v>1371</v>
       </c>
     </row>
-    <row r="19" spans="10:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="10:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="J19" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="K19" s="9" t="s">
+      <c r="K19" s="8" t="s">
         <v>8</v>
       </c>
       <c r="L19" s="5">
@@ -1081,8 +1083,9 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="J4:L19" xr:uid="{0526ED97-AC70-496A-9EF3-3C90622450DD}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J5:L19">
-    <sortCondition ref="J4:J19"/>
+    <sortCondition ref="J5:J19"/>
   </sortState>
   <mergeCells count="2">
     <mergeCell ref="B2:E2"/>
@@ -1100,35 +1103,35 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="2.875" customWidth="1"/>
+    <col min="1" max="1" width="2.8984375" customWidth="1"/>
     <col min="2" max="6" width="10.5" customWidth="1"/>
     <col min="7" max="7" width="5.5" customWidth="1"/>
-    <col min="8" max="14" width="10.875" customWidth="1"/>
+    <col min="8" max="14" width="10.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:14" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="24" t="s">
+    <row r="1" spans="2:14" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:14" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="H2" s="24" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="H2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-    </row>
-    <row r="3" spans="2:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+    </row>
+    <row r="3" spans="2:14" ht="11.4" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1144,24 +1147,24 @@
       <c r="F4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="H4" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="28" t="s">
+      <c r="I4" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="28"/>
-      <c r="K4" s="29" t="s">
+      <c r="J4" s="25"/>
+      <c r="K4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29" t="s">
+      <c r="L4" s="26"/>
+      <c r="M4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="29"/>
-    </row>
-    <row r="5" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="25" t="s">
+      <c r="N4" s="26"/>
+    </row>
+    <row r="5" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="27" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1176,28 +1179,28 @@
       <c r="F5" s="5">
         <v>421</v>
       </c>
-      <c r="H5" s="27"/>
-      <c r="I5" s="23" t="s">
+      <c r="H5" s="24"/>
+      <c r="I5" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="23" t="s">
+      <c r="J5" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="23" t="s">
+      <c r="K5" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="23" t="s">
+      <c r="L5" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="M5" s="23" t="s">
+      <c r="M5" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="N5" s="23" t="s">
+      <c r="N5" s="22" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="26"/>
+    <row r="6" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="28"/>
       <c r="C6" s="2" t="s">
         <v>30</v>
       </c>
@@ -1232,8 +1235,8 @@
         <v>631</v>
       </c>
     </row>
-    <row r="7" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="25" t="s">
+    <row r="7" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="27" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1270,8 +1273,8 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="8" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="26" t="s">
+    <row r="8" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="28" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1308,8 +1311,8 @@
         <v>980</v>
       </c>
     </row>
-    <row r="9" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="25" t="s">
+    <row r="9" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="27" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1346,8 +1349,8 @@
         <v>391</v>
       </c>
     </row>
-    <row r="10" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="26" t="s">
+    <row r="10" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="28" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1384,8 +1387,8 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="11" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="25" t="s">
+    <row r="11" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="27" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1401,8 +1404,8 @@
         <v>638</v>
       </c>
     </row>
-    <row r="12" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="26" t="s">
+    <row r="12" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="28" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1418,8 +1421,8 @@
         <v>391</v>
       </c>
     </row>
-    <row r="13" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="25" t="s">
+    <row r="13" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="27" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1435,8 +1438,8 @@
         <v>412</v>
       </c>
     </row>
-    <row r="14" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="26" t="s">
+    <row r="14" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="28" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1454,17 +1457,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="H2:N2"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B5:B6"/>
+    <mergeCell ref="H2:N2"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1477,182 +1480,182 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="2" max="2" width="11.25" customWidth="1"/>
-    <col min="3" max="3" width="12.25" style="10" customWidth="1"/>
+    <col min="2" max="2" width="11.19921875" customWidth="1"/>
+    <col min="3" max="3" width="12.19921875" style="9" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="4.75" customWidth="1"/>
-    <col min="6" max="6" width="3.875" customWidth="1"/>
-    <col min="10" max="10" width="9.625" customWidth="1"/>
+    <col min="5" max="5" width="4.69921875" customWidth="1"/>
+    <col min="6" max="6" width="3.8984375" customWidth="1"/>
+    <col min="10" max="10" width="9.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:10" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="33" t="s">
+    <row r="1" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:10" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="G2" s="24" t="s">
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="G2" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="20" t="s">
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="J4" s="15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="31" t="s">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B5" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="2">
         <v>142</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="14">
         <v>3</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="13">
         <v>2</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="11">
         <v>5</v>
       </c>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="31"/>
-      <c r="C6" s="11" t="s">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B6" s="30"/>
+      <c r="C6" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="2">
         <v>111</v>
       </c>
-      <c r="G6" s="31">
+      <c r="G6" s="30">
         <v>1</v>
       </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="32"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="31"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="31"/>
-      <c r="C7" s="11" t="s">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B7" s="30"/>
+      <c r="C7" s="10" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="2">
         <v>151</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="12">
         <v>4</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="11">
         <v>3</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="11">
         <v>1</v>
       </c>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="31" t="s">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B8" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="2">
         <v>163</v>
       </c>
-      <c r="G8" s="31">
+      <c r="G8" s="30">
         <v>2</v>
       </c>
-      <c r="H8" s="32"/>
-      <c r="I8" s="12">
+      <c r="H8" s="31"/>
+      <c r="I8" s="11">
         <v>3</v>
       </c>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="31"/>
-      <c r="C9" s="11" t="s">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B9" s="30"/>
+      <c r="C9" s="10" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="2">
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="31" t="s">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B10" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="2">
         <v>133</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="31"/>
-      <c r="C11" s="11" t="s">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B11" s="30"/>
+      <c r="C11" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="2">
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="27" t="s">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B12" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="30"/>
+      <c r="C12" s="29"/>
       <c r="D12" s="2">
         <f>SUMIF($B$5:$B$11,B12,$D$5:$D$11)</f>
         <v>142</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="30" t="s">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B13" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="30"/>
+      <c r="C13" s="29"/>
       <c r="D13" s="2">
         <f>SUMIF($B$5:$B$11,B13,$D$5:$D$11)</f>
         <v>163</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="30" t="s">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B14" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="30"/>
+      <c r="C14" s="29"/>
       <c r="D14" s="2">
         <f>SUMIF($B$5:$B$11,B14,$D$5:$D$11)</f>
         <v>133</v>
